--- a/Örnek 34 - Filtre.xlsx
+++ b/Örnek 34 - Filtre.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagan\Desktop\OneDrive_2018-12-18\Excel Uygulama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88a89685dae84bb8/Masaüstü/excel ödevi 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C093D7CB-FD8C-4911-BF3D-0BFEE4D4CBBC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34159C59-ACC6-4BA3-B3A9-D72996EDD6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480" tabRatio="698"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="33-SÜZME" sheetId="17" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'33-SÜZME'!$D$2:$I$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'33-SÜZME'!$D$1:$F$48</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">'33-SÜZME'!#REF!</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">'33-SÜZME'!$G$3</definedName>
   </definedNames>
   <calcPr calcId="114210"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
   <si>
     <t>ürün adı</t>
   </si>
@@ -114,12 +106,21 @@
   </si>
   <si>
     <t>Bölüm:</t>
+  </si>
+  <si>
+    <t>NUMARA:20215070019</t>
+  </si>
+  <si>
+    <t>AD SOYAD: KÜBRA ÇABUK</t>
+  </si>
+  <si>
+    <t>BÖLÜM:YBS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -730,12 +731,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sayfa28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sayfa28" filterMode="1"/>
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -743,11 +744,11 @@
     <col min="4" max="4" width="23.5703125" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" customWidth="1"/>
     <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
@@ -758,7 +759,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
@@ -769,7 +770,7 @@
         <v>39490</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="9" t="s">
         <v>14</v>
       </c>
@@ -780,7 +781,7 @@
         <v>39491</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="9" t="s">
         <v>15</v>
       </c>
@@ -791,7 +792,7 @@
         <v>39492</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
@@ -802,7 +803,7 @@
         <v>39493</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="6" t="s">
         <v>17</v>
       </c>
@@ -813,7 +814,7 @@
         <v>39494</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="D8" s="6" t="s">
@@ -831,7 +832,7 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
     </row>
-    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="6" t="s">
@@ -849,7 +850,7 @@
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="6" t="s">
@@ -862,7 +863,7 @@
         <v>39490</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="8"/>
       <c r="C11" s="4"/>
@@ -876,7 +877,7 @@
         <v>39491</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="8"/>
       <c r="C12" s="4"/>
@@ -890,7 +891,7 @@
         <v>39492</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="8"/>
       <c r="C13" s="4"/>
       <c r="D13" s="6" t="s">
@@ -909,7 +910,7 @@
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6" t="s">
@@ -928,7 +929,7 @@
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
     </row>
-    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="8"/>
       <c r="C15" s="4"/>
       <c r="D15" s="6" t="s">
@@ -947,7 +948,7 @@
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
     </row>
-    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6" t="s">
@@ -960,7 +961,7 @@
         <v>39496</v>
       </c>
     </row>
-    <row r="17" spans="4:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:9" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="6" t="s">
         <v>19</v>
       </c>
@@ -971,7 +972,7 @@
         <v>39490</v>
       </c>
     </row>
-    <row r="18" spans="4:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:9" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="6" t="s">
         <v>5</v>
       </c>
@@ -982,7 +983,7 @@
         <v>39491</v>
       </c>
     </row>
-    <row r="19" spans="4:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:9" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D19" s="6" t="s">
         <v>13</v>
       </c>
@@ -993,7 +994,7 @@
         <v>39492</v>
       </c>
     </row>
-    <row r="20" spans="4:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:9" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D20" s="6" t="s">
         <v>20</v>
       </c>
@@ -1004,7 +1005,7 @@
         <v>39493</v>
       </c>
     </row>
-    <row r="21" spans="4:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:9" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="6" t="s">
         <v>3</v>
       </c>
@@ -1015,7 +1016,7 @@
         <v>39494</v>
       </c>
     </row>
-    <row r="22" spans="4:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:9" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="6" t="s">
         <v>7</v>
       </c>
@@ -1026,7 +1027,7 @@
         <v>39495</v>
       </c>
     </row>
-    <row r="23" spans="4:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:9" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="6" t="s">
         <v>2</v>
       </c>
@@ -1037,7 +1038,7 @@
         <v>39496</v>
       </c>
     </row>
-    <row r="24" spans="4:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:9" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D24" s="6" t="s">
         <v>18</v>
       </c>
@@ -1048,7 +1049,7 @@
         <v>39490</v>
       </c>
     </row>
-    <row r="25" spans="4:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:9" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D25" s="7" t="s">
         <v>18</v>
       </c>
@@ -1059,7 +1060,7 @@
         <v>39491</v>
       </c>
     </row>
-    <row r="26" spans="4:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:9" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D26" s="5" t="s">
         <v>14</v>
       </c>
@@ -1070,7 +1071,7 @@
         <v>40252</v>
       </c>
     </row>
-    <row r="27" spans="4:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:9" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D27" s="9" t="s">
         <v>14</v>
       </c>
@@ -1081,7 +1082,7 @@
         <v>40253</v>
       </c>
     </row>
-    <row r="28" spans="4:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="9" t="s">
         <v>15</v>
       </c>
@@ -1092,7 +1093,7 @@
         <v>40254</v>
       </c>
     </row>
-    <row r="29" spans="4:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:9" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D29" s="6" t="s">
         <v>15</v>
       </c>
@@ -1103,7 +1104,7 @@
         <v>40255</v>
       </c>
     </row>
-    <row r="30" spans="4:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D30" s="6" t="s">
         <v>17</v>
       </c>
@@ -1113,8 +1114,11 @@
       <c r="F30" s="14">
         <v>40256</v>
       </c>
-    </row>
-    <row r="31" spans="4:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D31" s="6" t="s">
         <v>4</v>
       </c>
@@ -1124,8 +1128,11 @@
       <c r="F31" s="14">
         <v>40257</v>
       </c>
-    </row>
-    <row r="32" spans="4:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D32" s="6" t="s">
         <v>6</v>
       </c>
@@ -1136,7 +1143,7 @@
         <v>40258</v>
       </c>
     </row>
-    <row r="33" spans="4:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D33" s="6" t="s">
         <v>16</v>
       </c>
@@ -1146,8 +1153,11 @@
       <c r="F33" s="14">
         <v>40259</v>
       </c>
-    </row>
-    <row r="34" spans="4:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D34" s="6" t="s">
         <v>8</v>
       </c>
@@ -1158,7 +1168,7 @@
         <v>40260</v>
       </c>
     </row>
-    <row r="35" spans="4:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D35" s="6" t="s">
         <v>10</v>
       </c>
@@ -1169,7 +1179,7 @@
         <v>40261</v>
       </c>
     </row>
-    <row r="36" spans="4:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D36" s="6" t="s">
         <v>18</v>
       </c>
@@ -1180,7 +1190,7 @@
         <v>40262</v>
       </c>
     </row>
-    <row r="37" spans="4:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D37" s="6" t="s">
         <v>11</v>
       </c>
@@ -1191,7 +1201,7 @@
         <v>40263</v>
       </c>
     </row>
-    <row r="38" spans="4:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D38" s="6" t="s">
         <v>12</v>
       </c>
@@ -1202,7 +1212,7 @@
         <v>40264</v>
       </c>
     </row>
-    <row r="39" spans="4:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:9" ht="18" x14ac:dyDescent="0.25">
       <c r="D39" s="6" t="s">
         <v>9</v>
       </c>
@@ -1213,7 +1223,7 @@
         <v>40265</v>
       </c>
     </row>
-    <row r="40" spans="4:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:9" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="D40" s="6" t="s">
         <v>19</v>
       </c>
@@ -1224,7 +1234,7 @@
         <v>40266</v>
       </c>
     </row>
-    <row r="41" spans="4:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:9" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="D41" s="6" t="s">
         <v>5</v>
       </c>
@@ -1235,7 +1245,7 @@
         <v>40267</v>
       </c>
     </row>
-    <row r="42" spans="4:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:9" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="D42" s="6" t="s">
         <v>13</v>
       </c>
@@ -1246,7 +1256,7 @@
         <v>40268</v>
       </c>
     </row>
-    <row r="43" spans="4:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:9" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="D43" s="6" t="s">
         <v>20</v>
       </c>
@@ -1257,7 +1267,7 @@
         <v>40269</v>
       </c>
     </row>
-    <row r="44" spans="4:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:9" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="D44" s="6" t="s">
         <v>3</v>
       </c>
@@ -1268,7 +1278,7 @@
         <v>40270</v>
       </c>
     </row>
-    <row r="45" spans="4:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:9" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="D45" s="6" t="s">
         <v>7</v>
       </c>
@@ -1279,7 +1289,7 @@
         <v>40271</v>
       </c>
     </row>
-    <row r="46" spans="4:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:9" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="D46" s="6" t="s">
         <v>2</v>
       </c>
@@ -1290,7 +1300,7 @@
         <v>40272</v>
       </c>
     </row>
-    <row r="47" spans="4:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:9" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="D47" s="6" t="s">
         <v>18</v>
       </c>
@@ -1301,7 +1311,7 @@
         <v>40273</v>
       </c>
     </row>
-    <row r="48" spans="4:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:9" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D48" s="7" t="s">
         <v>18</v>
       </c>
@@ -1313,6 +1323,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:F48" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="greaterThan" val="20"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <dateGroupItem year="2010" month="3" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="5">
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
@@ -1322,7 +1344,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="UYARI" error="buraya girilen değer 0-100 arasında olmalıdır." sqref="E3:E17 E26:E40"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="UYARI" error="buraya girilen değer 0-100 arasında olmalıdır." sqref="E3:E17 E26:E40" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
